--- a/Empirical estimates of confounding bias/Raw data/Shikata data/Shikata table scraped.xlsx
+++ b/Empirical estimates of confounding bias/Raw data/Shikata data/Shikata table scraped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmathur/Dropbox/Personal computer/Independent studies/2021/AR-T (Ann Rev tutorial)/Git (AR-T)/Empirical estimates of confounding bias/Raw data/Shikata data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA10C1F-8056-B34F-9964-3585AEAC37DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF51617-49DA-5645-B4C9-BA9731019607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <r>
       <rPr>
@@ -1063,13 +1063,19 @@
     </r>
   </si>
   <si>
-    <t>RCT</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>est.RCT</t>
+  </si>
+  <si>
+    <t>ci.RCT</t>
+  </si>
+  <si>
+    <t>est.obs</t>
+  </si>
+  <si>
+    <t>ci.obs</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1464,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1471,11 +1477,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1529,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
